--- a/webapp/static/Portfolio.xlsx
+++ b/webapp/static/Portfolio.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ebe8fd62de35b8b4/Documentos/GitHub/Consapi/webapp/static/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\Documents\Goliat\webapp\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="96" documentId="8_{77D7AD18-6980-4604-9B3D-48E5413AA9BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6AD0908B-8BBA-415B-A691-75EF70EDD1A0}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C54A99F0-84B3-4BD4-8D5A-69378DCE8109}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CC03D1C2-E99C-4F24-B81E-CC33184620FD}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$F$50</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$F$51</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="53">
   <si>
     <t>Segmentos de Baños</t>
   </si>
@@ -289,9 +289,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -329,7 +329,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -435,7 +435,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -577,7 +577,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -585,10 +585,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{977F2531-7A5B-42F7-8141-39558429BE53}">
-  <dimension ref="A1:F51"/>
+  <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:F50"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="32.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -749,7 +749,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>47</v>
@@ -772,13 +772,13 @@
         <v>23</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -789,16 +789,16 @@
         <v>7</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -809,16 +809,16 @@
         <v>7</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -832,33 +832,33 @@
         <v>18</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -872,13 +872,13 @@
         <v>23</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -889,16 +889,16 @@
         <v>7</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -909,16 +909,16 @@
         <v>7</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -932,33 +932,33 @@
         <v>18</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -972,13 +972,13 @@
         <v>23</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -989,16 +989,16 @@
         <v>27</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1009,16 +1009,16 @@
         <v>27</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1029,36 +1029,36 @@
         <v>27</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1072,13 +1072,13 @@
         <v>23</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1089,16 +1089,16 @@
         <v>27</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1109,16 +1109,16 @@
         <v>27</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -1129,36 +1129,36 @@
         <v>27</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -1172,13 +1172,13 @@
         <v>23</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -1189,16 +1189,16 @@
         <v>27</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -1209,16 +1209,16 @@
         <v>27</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -1229,36 +1229,36 @@
         <v>27</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -1272,13 +1272,13 @@
         <v>23</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -1289,16 +1289,16 @@
         <v>27</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -1309,16 +1309,16 @@
         <v>27</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -1329,56 +1329,56 @@
         <v>27</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -1389,16 +1389,16 @@
         <v>33</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -1409,16 +1409,16 @@
         <v>33</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -1429,7 +1429,7 @@
         <v>33</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>34</v>
@@ -1443,19 +1443,19 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>40</v>
@@ -1469,16 +1469,16 @@
         <v>33</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -1489,16 +1489,16 @@
         <v>33</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -1509,7 +1509,7 @@
         <v>33</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>34</v>
@@ -1523,22 +1523,22 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -1549,16 +1549,16 @@
         <v>33</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -1569,16 +1569,16 @@
         <v>33</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -1589,7 +1589,7 @@
         <v>33</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>34</v>
@@ -1603,26 +1603,46 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E51" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E52" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F51" s="2" t="s">
+      <c r="F52" s="2" t="s">
         <v>36</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F50" xr:uid="{977F2531-7A5B-42F7-8141-39558429BE53}"/>
+  <autoFilter ref="A1:F51" xr:uid="{977F2531-7A5B-42F7-8141-39558429BE53}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>
     <oddFooter>&amp;R_x000D_&amp;1#&amp;"Calibri"&amp;7&amp;K000000 ESSITY INTERNAL</oddFooter>

--- a/webapp/static/Portfolio.xlsx
+++ b/webapp/static/Portfolio.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\Documents\Goliat\webapp\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C54A99F0-84B3-4BD4-8D5A-69378DCE8109}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEB053CD-7878-411A-A888-8BC68AB813E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CC03D1C2-E99C-4F24-B81E-CC33184620FD}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$F$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$F$52</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -141,9 +141,6 @@
     <t>Jabones y Gel</t>
   </si>
   <si>
-    <t>NA</t>
-  </si>
-  <si>
     <t>203 230 , 203 169</t>
   </si>
   <si>
@@ -196,6 +193,9 @@
   </si>
   <si>
     <t>837 00 , 203 560</t>
+  </si>
+  <si>
+    <t>Tork® Jabones</t>
   </si>
 </sst>
 </file>
@@ -588,7 +588,7 @@
   <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="32.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -635,7 +635,7 @@
         <v>19</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>22</v>
@@ -675,7 +675,7 @@
         <v>19</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>22</v>
@@ -692,13 +692,13 @@
         <v>23</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -732,13 +732,13 @@
         <v>18</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -752,13 +752,13 @@
         <v>26</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -772,13 +772,13 @@
         <v>23</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -795,7 +795,7 @@
         <v>19</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>22</v>
@@ -832,13 +832,13 @@
         <v>18</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -855,7 +855,7 @@
         <v>19</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>22</v>
@@ -872,13 +872,13 @@
         <v>23</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -932,13 +932,13 @@
         <v>18</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -958,7 +958,7 @@
         <v>24</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -972,13 +972,13 @@
         <v>23</v>
       </c>
       <c r="D19" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="F19" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -995,10 +995,10 @@
         <v>32</v>
       </c>
       <c r="E20" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F20" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1018,7 +1018,7 @@
         <v>29</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1035,7 +1035,7 @@
         <v>30</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>31</v>
@@ -1055,10 +1055,10 @@
         <v>32</v>
       </c>
       <c r="E23" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F23" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1072,13 +1072,13 @@
         <v>23</v>
       </c>
       <c r="D24" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="F24" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1095,10 +1095,10 @@
         <v>32</v>
       </c>
       <c r="E25" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F25" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1118,7 +1118,7 @@
         <v>29</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -1135,7 +1135,7 @@
         <v>30</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>31</v>
@@ -1155,10 +1155,10 @@
         <v>32</v>
       </c>
       <c r="E28" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F28" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -1172,13 +1172,13 @@
         <v>23</v>
       </c>
       <c r="D29" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="F29" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -1195,10 +1195,10 @@
         <v>32</v>
       </c>
       <c r="E30" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F30" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -1218,7 +1218,7 @@
         <v>29</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -1235,7 +1235,7 @@
         <v>30</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>31</v>
@@ -1255,10 +1255,10 @@
         <v>32</v>
       </c>
       <c r="E33" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F33" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -1272,13 +1272,13 @@
         <v>23</v>
       </c>
       <c r="D34" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E34" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E34" s="2" t="s">
+      <c r="F34" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -1295,10 +1295,10 @@
         <v>32</v>
       </c>
       <c r="E35" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F35" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -1318,7 +1318,7 @@
         <v>29</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -1335,7 +1335,7 @@
         <v>30</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>31</v>
@@ -1355,10 +1355,10 @@
         <v>32</v>
       </c>
       <c r="E38" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F38" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -1372,13 +1372,13 @@
         <v>8</v>
       </c>
       <c r="D39" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E39" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E39" s="2" t="s">
+      <c r="F39" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -1392,13 +1392,13 @@
         <v>23</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="E40" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F40" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -1412,13 +1412,13 @@
         <v>8</v>
       </c>
       <c r="D41" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E41" s="2" t="s">
+      <c r="F41" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -1432,13 +1432,13 @@
         <v>18</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="E42" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F42" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -1452,13 +1452,13 @@
         <v>26</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="E43" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F43" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -1472,13 +1472,13 @@
         <v>23</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -1492,13 +1492,13 @@
         <v>8</v>
       </c>
       <c r="D45" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E45" s="2" t="s">
+      <c r="F45" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -1512,13 +1512,13 @@
         <v>18</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -1532,13 +1532,13 @@
         <v>26</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -1552,13 +1552,13 @@
         <v>23</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="E48" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F48" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -1572,13 +1572,13 @@
         <v>8</v>
       </c>
       <c r="D49" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E49" s="2" t="s">
+      <c r="F49" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -1592,13 +1592,13 @@
         <v>18</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="E50" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F50" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -1612,13 +1612,13 @@
         <v>26</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="E51" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F51" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -1632,17 +1632,17 @@
         <v>18</v>
       </c>
       <c r="D52" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E52" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E52" s="2" t="s">
+      <c r="F52" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F52" s="2" t="s">
-        <v>36</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F51" xr:uid="{977F2531-7A5B-42F7-8141-39558429BE53}"/>
+  <autoFilter ref="A1:F52" xr:uid="{977F2531-7A5B-42F7-8141-39558429BE53}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>
     <oddFooter>&amp;R_x000D_&amp;1#&amp;"Calibri"&amp;7&amp;K000000 ESSITY INTERNAL</oddFooter>
